--- a/510k/表/Y游戏场.xlsx
+++ b/510k/表/Y游戏场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13065" windowHeight="8130"/>
+    <workbookView windowWidth="22740" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：普通
+2：排位
+3：比赛</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否开放</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -30,7 +60,37 @@
     <t>欢乐豆上限</t>
   </si>
   <si>
+    <t>初始桌数</t>
+  </si>
+  <si>
+    <t>排位加成%</t>
+  </si>
+  <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>sfkf</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>rczdxz</t>
+  </si>
+  <si>
+    <t>rczgxz</t>
+  </si>
+  <si>
+    <t>cszs</t>
+  </si>
+  <si>
+    <t>bwdfjc</t>
   </si>
   <si>
     <t>新手场</t>
@@ -41,12 +101,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,57 +116,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +130,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,71 +243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,6 +268,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -233,60 +292,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,19 +388,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,48 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,15 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,6 +492,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -468,15 +521,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,153 +550,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,19 +1061,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1033,28 +1087,82 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="G3">
         <v>10000</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
